--- a/miro_dados_ultimos_30_dias.xlsx
+++ b/miro_dados_ultimos_30_dias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,11 @@
           <t>Término dos relatórios</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Data de criação</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -632,8 +637,21 @@
       <c r="U2" t="n">
         <v>839</v>
       </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>30/09/2024</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>16/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -717,8 +735,21 @@
       <c r="U3" t="n">
         <v>189</v>
       </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>30/09/2024</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -788,8 +819,21 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>30/09/2024</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>16/10/2024</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -869,8 +913,21 @@
       <c r="U5" t="n">
         <v>33</v>
       </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>30/09/2024</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>16/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -950,8 +1007,21 @@
       <c r="U6" t="n">
         <v>45</v>
       </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>30/09/2024</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>16/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1031,8 +1101,21 @@
       <c r="U7" t="n">
         <v>11</v>
       </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>30/09/2024</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>16/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1100,8 +1183,21 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>30/09/2024</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>15/10/2024</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1181,8 +1277,21 @@
       <c r="U9" t="n">
         <v>2</v>
       </c>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>30/09/2024</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>16/09/2024</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
